--- a/TESTSUITE/TS_ThemGioHang.xlsx
+++ b/TESTSUITE/TS_ThemGioHang.xlsx
@@ -1433,21 +1433,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1469,7 +1469,7 @@
     <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1895,8 +1895,8 @@
   <sheetPr/>
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="109" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView zoomScale="109" zoomScaleNormal="109" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="6"/>
@@ -4027,7 +4027,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A1" sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="1"/>
